--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2222321.781731713</v>
+        <v>-2224909.292937287</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>272.9733749441977</v>
+        <v>411.0904450475561</v>
       </c>
       <c r="H2" t="n">
         <v>296.3356618821742</v>
       </c>
       <c r="I2" t="n">
-        <v>48.08148421406807</v>
+        <v>48.08148421406821</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>113.0324549812898</v>
+        <v>113.0324549812899</v>
       </c>
       <c r="T2" t="n">
         <v>204.6565392873045</v>
@@ -716,13 +716,13 @@
         <v>251.0086695104302</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>185.1769794593118</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>135.089742000015</v>
       </c>
       <c r="H3" t="n">
-        <v>90.46872094984357</v>
+        <v>90.4687209498436</v>
       </c>
       <c r="I3" t="n">
-        <v>11.79954938173971</v>
+        <v>11.79954938173978</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>129.8202859453569</v>
+        <v>129.820285945357</v>
       </c>
       <c r="T3" t="n">
         <v>191.0804331905373</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>68.3239980439167</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1014899708501</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.4278941339734</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.62837588899012</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>92.33507763978304</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>191.0879511638283</v>
+        <v>55.4052870453094</v>
       </c>
       <c r="T4" t="n">
         <v>219.8723165903172</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>49.87943354460396</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>112.5527839452982</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>56.97227283338415</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>114.265617377101</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>181.2290365055918</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>26.30878201733128</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>77.06300304438594</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>97.49408936989033</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417117</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805175895</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>179.4744566894672</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890395</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179972</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>247.9252424950639</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>108.2950343703267</v>
       </c>
       <c r="H19" t="n">
-        <v>21.90286287505444</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>86.9059890879407</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>215.3025979624041</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>102.1557845699811</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428266</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>125.8152577453159</v>
       </c>
       <c r="T28" t="n">
-        <v>25.52471385612589</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2956,10 +2956,10 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.136400530891</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,7 +3907,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002292</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1824.23856667898</v>
+        <v>1594.788241762162</v>
       </c>
       <c r="C2" t="n">
-        <v>1455.276049738568</v>
+        <v>1594.788241762162</v>
       </c>
       <c r="D2" t="n">
-        <v>1097.010351131818</v>
+        <v>1236.522543155412</v>
       </c>
       <c r="E2" t="n">
-        <v>1097.010351131818</v>
+        <v>1236.522543155412</v>
       </c>
       <c r="F2" t="n">
-        <v>686.0244463422101</v>
+        <v>825.5366383658043</v>
       </c>
       <c r="G2" t="n">
-        <v>410.2937645803942</v>
+        <v>410.2937645803944</v>
       </c>
       <c r="H2" t="n">
-        <v>110.9648131842587</v>
+        <v>110.9648131842588</v>
       </c>
       <c r="I2" t="n">
-        <v>62.39765741247279</v>
+        <v>62.39765741247272</v>
       </c>
       <c r="J2" t="n">
         <v>237.1001391730315</v>
@@ -4334,46 +4334,46 @@
         <v>549.6723906315701</v>
       </c>
       <c r="L2" t="n">
-        <v>974.3476699529751</v>
+        <v>974.3476699529742</v>
       </c>
       <c r="M2" t="n">
-        <v>1478.550181808271</v>
+        <v>1478.55018180827</v>
       </c>
       <c r="N2" t="n">
-        <v>1995.525025811715</v>
+        <v>1995.525025811713</v>
       </c>
       <c r="O2" t="n">
-        <v>2470.354450076072</v>
+        <v>2470.354450076069</v>
       </c>
       <c r="P2" t="n">
-        <v>2841.10937725976</v>
+        <v>2841.109377259756</v>
       </c>
       <c r="Q2" t="n">
-        <v>3071.358140510239</v>
+        <v>3071.358140510236</v>
       </c>
       <c r="R2" t="n">
-        <v>3119.88287062364</v>
+        <v>3119.882870623636</v>
       </c>
       <c r="S2" t="n">
-        <v>3005.708673672842</v>
+        <v>3005.708673672838</v>
       </c>
       <c r="T2" t="n">
-        <v>2798.984896614958</v>
+        <v>2798.984896614955</v>
       </c>
       <c r="U2" t="n">
-        <v>2545.440785998362</v>
+        <v>2545.440785998358</v>
       </c>
       <c r="V2" t="n">
-        <v>2214.377898654791</v>
+        <v>2358.393331999054</v>
       </c>
       <c r="W2" t="n">
-        <v>2214.377898654791</v>
+        <v>2358.393331999054</v>
       </c>
       <c r="X2" t="n">
-        <v>2214.377898654791</v>
+        <v>1984.927573737974</v>
       </c>
       <c r="Y2" t="n">
-        <v>1824.23856667898</v>
+        <v>1594.788241762162</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>302.1532254241882</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6989405756882</v>
+        <v>165.6989405756883</v>
       </c>
       <c r="H3" t="n">
         <v>74.31639416170482</v>
       </c>
       <c r="I3" t="n">
-        <v>62.39765741247279</v>
+        <v>62.39765741247272</v>
       </c>
       <c r="J3" t="n">
-        <v>147.6314117602529</v>
+        <v>147.6314117602527</v>
       </c>
       <c r="K3" t="n">
-        <v>371.4642984981863</v>
+        <v>371.4642984981857</v>
       </c>
       <c r="L3" t="n">
-        <v>718.7577785663805</v>
+        <v>718.7577785663794</v>
       </c>
       <c r="M3" t="n">
-        <v>1143.389757203036</v>
+        <v>1143.389757203035</v>
       </c>
       <c r="N3" t="n">
-        <v>1727.380043941864</v>
+        <v>1593.669125698063</v>
       </c>
       <c r="O3" t="n">
-        <v>2117.077901701059</v>
+        <v>1983.366983457257</v>
       </c>
       <c r="P3" t="n">
-        <v>2410.51172267956</v>
+        <v>2276.800804435758</v>
       </c>
       <c r="Q3" t="n">
         <v>2556.745264694707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279.3248904331657</v>
+        <v>1895.592116287806</v>
       </c>
       <c r="C4" t="n">
-        <v>279.3248904331657</v>
+        <v>1895.592116287806</v>
       </c>
       <c r="D4" t="n">
-        <v>279.3248904331657</v>
+        <v>1895.592116287806</v>
       </c>
       <c r="E4" t="n">
-        <v>131.4117968507726</v>
+        <v>1747.679022705413</v>
       </c>
       <c r="F4" t="n">
-        <v>62.39765741247279</v>
+        <v>1747.679022705413</v>
       </c>
       <c r="G4" t="n">
-        <v>62.39765741247279</v>
+        <v>1579.899739906575</v>
       </c>
       <c r="H4" t="n">
-        <v>62.39765741247279</v>
+        <v>1433.002877144985</v>
       </c>
       <c r="I4" t="n">
-        <v>62.39765741247279</v>
+        <v>1333.378255034894</v>
       </c>
       <c r="J4" t="n">
-        <v>102.2230998038608</v>
+        <v>1373.203697426282</v>
       </c>
       <c r="K4" t="n">
-        <v>297.5053722589867</v>
+        <v>1568.485969881408</v>
       </c>
       <c r="L4" t="n">
-        <v>602.9258822712703</v>
+        <v>1873.906479893691</v>
       </c>
       <c r="M4" t="n">
-        <v>935.3381100583199</v>
+        <v>2206.318707680741</v>
       </c>
       <c r="N4" t="n">
-        <v>1265.280934468308</v>
+        <v>2536.261532090728</v>
       </c>
       <c r="O4" t="n">
-        <v>1554.020240090065</v>
+        <v>2825.000837712485</v>
       </c>
       <c r="P4" t="n">
-        <v>1777.565915077022</v>
+        <v>3048.546512699442</v>
       </c>
       <c r="Q4" t="n">
-        <v>1848.902273001216</v>
+        <v>3119.882870623636</v>
       </c>
       <c r="R4" t="n">
-        <v>1755.634517809516</v>
+        <v>3119.882870623636</v>
       </c>
       <c r="S4" t="n">
-        <v>1562.6163853208</v>
+        <v>3063.917934214233</v>
       </c>
       <c r="T4" t="n">
-        <v>1340.523136239672</v>
+        <v>2841.824685133104</v>
       </c>
       <c r="U4" t="n">
-        <v>1051.416099574031</v>
+        <v>2552.717648467463</v>
       </c>
       <c r="V4" t="n">
-        <v>796.7316113681437</v>
+        <v>2298.033160261576</v>
       </c>
       <c r="W4" t="n">
-        <v>507.314441331183</v>
+        <v>2298.033160261576</v>
       </c>
       <c r="X4" t="n">
-        <v>279.3248904331657</v>
+        <v>2298.033160261576</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.3248904331657</v>
+        <v>2077.240581118046</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.299101484278</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.336584543866</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="D5" t="n">
-        <v>1257.336584543866</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5483319456216</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>375.1277629380157</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3005.938393240566</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2674.875505896995</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2322.106850626881</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.038273524211</v>
+        <v>1948.641092365801</v>
       </c>
       <c r="Y5" t="n">
-        <v>2012.898941548399</v>
+        <v>1558.501760389989</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>684.452007243032</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>515.5158243151251</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>515.5158243151251</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>367.602730732732</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>367.602730732732</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4720,55 +4720,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214137</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.50719300825</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732717</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>866.1004720732717</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
@@ -4823,31 +4823,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3032.255520302333</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2701.192632958763</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W8" t="n">
-        <v>2701.192632958763</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.726874697683</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.726874697683</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>753.0765981364616</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="C10" t="n">
-        <v>675.2351809199101</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1828.815669937088</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1828.815669937088</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1574.131181731201</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.507193008249</v>
+        <v>1574.131181731201</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.517642110231</v>
+        <v>1346.141630833184</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.7250629667013</v>
+        <v>1125.349051689654</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400689</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121621</v>
+        <v>929.7309773356193</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578601</v>
+        <v>779.6143379232835</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>631.7012443408904</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138388</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703087</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,19 +5358,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.8412329032295</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032295</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
         <v>402.7245934908938</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1183.271827775017</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>955.2822768769995</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.4896977334693</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,16 +5501,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.192580311172</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400719</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C19" t="n">
-        <v>344.917417812165</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D19" t="n">
-        <v>344.917417812165</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E19" t="n">
-        <v>344.917417812165</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F19" t="n">
-        <v>198.0274703142547</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G19" t="n">
-        <v>198.0274703142547</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478296</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
         <v>2035.089393279802</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138418</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703116</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5838,19 +5838,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>954.2476448606607</v>
+        <v>874.868625753638</v>
       </c>
       <c r="C22" t="n">
-        <v>785.3114619327537</v>
+        <v>705.9324428257311</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711977</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888046</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908942</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5914,16 +5914,16 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>1135.8961096909</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5987,7 +5987,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075813</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121654</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121654</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121654</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121654</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270453</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.6725264685176</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406107</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282751</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458821</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2319.876964645598</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>2100.275499668539</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583152</v>
+        <v>1811.200273012737</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377265</v>
+        <v>1556.51578480685</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442287</v>
+        <v>1039.109063871872</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987573</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6619,7 +6619,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
         <v>483.8255460380728</v>
@@ -6664,7 +6664,7 @@
         <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150021</v>
@@ -7081,28 +7081,28 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
         <v>782.551295565682</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7728,19 +7728,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>135.0615335795952</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>135.0615335795983</v>
       </c>
       <c r="R3" t="n">
-        <v>5.747744270113657</v>
+        <v>5.74774427011377</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>138.1170701033584</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>142.5752790108232</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22714,16 +22714,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>77.09704997901454</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1014899708501</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4278941339733</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.62837588899008</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>92.33507763978311</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>135.6826641185191</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664534</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>107.0485416471238</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>38.59775584152706</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="H19" t="n">
-        <v>118.3918499711694</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>61.70948393027167</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>71.22040037418694</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>46.45968844823122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194124</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>55.21102825632887</v>
       </c>
       <c r="T28" t="n">
-        <v>191.8807364711624</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>5.258016244624741e-13</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1125343.700688742</v>
+        <v>1125343.700688741</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1363559.489815994</v>
+        <v>1363559.489815995</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1363559.489815995</v>
+        <v>1363559.489815994</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1363559.489815994</v>
+        <v>1363559.489815995</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1363559.489815994</v>
+        <v>1363559.489815995</v>
       </c>
     </row>
     <row r="11">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49733.50450522571</v>
+        <v>49733.5045052257</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>60535.99497675048</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="F2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="G2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="H2" t="n">
-        <v>60535.99497675047</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="I2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="J2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675043</v>
       </c>
       <c r="K2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="N2" t="n">
         <v>61578.13273982126</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982128</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
         <v>61578.13273982125</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1271067.297476341</v>
+        <v>1271067.29747634</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.77288023808</v>
+        <v>54832.77288023844</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>204074.6584503629</v>
+        <v>204074.6584503627</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.34410594291</v>
+        <v>32664.34410594299</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363177</v>
       </c>
     </row>
     <row r="4">
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15222.72472702449</v>
+        <v>15222.72472702456</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316948</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
-      <c r="I4" t="n">
-        <v>12386.92018181816</v>
-      </c>
       <c r="J4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
         <v>20377.7794449116</v>
@@ -26448,7 +26448,7 @@
         <v>20377.77944491159</v>
       </c>
       <c r="M4" t="n">
-        <v>20377.77944491166</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="N4" t="n">
         <v>20377.77944491159</v>
@@ -26457,7 +26457,7 @@
         <v>20377.77944491159</v>
       </c>
       <c r="P4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.7794449116</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>103892.0286120431</v>
+        <v>103892.028612043</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1340448.546310183</v>
+        <v>-1340843.367251335</v>
       </c>
       <c r="C6" t="n">
-        <v>-192762.5356549795</v>
+        <v>-192762.5356549799</v>
       </c>
       <c r="D6" t="n">
-        <v>-137929.7627747413</v>
+        <v>-137929.7627747415</v>
       </c>
       <c r="E6" t="n">
-        <v>-378385.9168363301</v>
+        <v>-378420.6547617657</v>
       </c>
       <c r="F6" t="n">
-        <v>-52973.4550289748</v>
+        <v>-53008.19295441049</v>
       </c>
       <c r="G6" t="n">
-        <v>-52973.45502897482</v>
+        <v>-53008.19295441049</v>
       </c>
       <c r="H6" t="n">
-        <v>-52973.45502897477</v>
+        <v>-53008.19295441052</v>
       </c>
       <c r="I6" t="n">
-        <v>-52973.45502897483</v>
+        <v>-53008.19295441049</v>
       </c>
       <c r="J6" t="n">
-        <v>-257048.1134793377</v>
+        <v>-257082.8514047732</v>
       </c>
       <c r="K6" t="n">
-        <v>-94628.10666494865</v>
+        <v>-94628.10666494875</v>
       </c>
       <c r="L6" t="n">
-        <v>-61963.7625590056</v>
+        <v>-61963.76255900574</v>
       </c>
       <c r="M6" t="n">
-        <v>-147018.7904945176</v>
+        <v>-147018.7904945177</v>
       </c>
       <c r="N6" t="n">
         <v>-61963.76255900573</v>
       </c>
       <c r="O6" t="n">
-        <v>-61963.76255900571</v>
+        <v>-61963.76255900574</v>
       </c>
       <c r="P6" t="n">
-        <v>-81391.48055263753</v>
+        <v>-81391.48055263751</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.2846474920397</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1047.807751310266</v>
+        <v>1047.807751310265</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559099</v>
+        <v>779.970717655909</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1047.807751310266</v>
+        <v>1047.807751310265</v>
       </c>
       <c r="C3" t="n">
-        <v>41.96894928303254</v>
+        <v>41.96894928303277</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559099</v>
+        <v>779.970717655909</v>
       </c>
       <c r="C4" t="n">
-        <v>51.4307377463831</v>
+        <v>51.43073774638356</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559099</v>
+        <v>779.970717655909</v>
       </c>
       <c r="K4" t="n">
-        <v>51.4307377463831</v>
+        <v>51.43073774638356</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559099</v>
+        <v>779.970717655909</v>
       </c>
       <c r="K4" t="n">
-        <v>51.4307377463831</v>
+        <v>51.43073774638356</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>356.9966121971075</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>138.4423880136038</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,16 +27777,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>109.0535354256441</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>75.50340795434097</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>69.76613545331017</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>322.9321867000817</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>90.1838180542419</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>122.0548599062789</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-8.432048548124569e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.212292467578956</v>
+        <v>4.212292467578952</v>
       </c>
       <c r="H2" t="n">
-        <v>43.13914023359299</v>
+        <v>43.13914023359295</v>
       </c>
       <c r="I2" t="n">
-        <v>162.3944053563378</v>
+        <v>162.3944053563377</v>
       </c>
       <c r="J2" t="n">
-        <v>357.5130578201797</v>
+        <v>357.5130578201794</v>
       </c>
       <c r="K2" t="n">
-        <v>535.819397972797</v>
+        <v>535.8193979727965</v>
       </c>
       <c r="L2" t="n">
-        <v>664.7313435774666</v>
+        <v>664.731343577466</v>
       </c>
       <c r="M2" t="n">
-        <v>739.6416997477738</v>
+        <v>739.6416997477731</v>
       </c>
       <c r="N2" t="n">
-        <v>751.6098757212826</v>
+        <v>751.6098757212819</v>
       </c>
       <c r="O2" t="n">
-        <v>709.7238924967943</v>
+        <v>709.7238924967937</v>
       </c>
       <c r="P2" t="n">
-        <v>605.7329222034388</v>
+        <v>605.7329222034382</v>
       </c>
       <c r="Q2" t="n">
-        <v>454.8801982082672</v>
+        <v>454.8801982082668</v>
       </c>
       <c r="R2" t="n">
-        <v>264.6004167165568</v>
+        <v>264.6004167165566</v>
       </c>
       <c r="S2" t="n">
-        <v>95.98761460495554</v>
+        <v>95.98761460495547</v>
       </c>
       <c r="T2" t="n">
-        <v>18.43931027682689</v>
+        <v>18.43931027682687</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3369833974063164</v>
+        <v>0.3369833974063161</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.253775163195666</v>
+        <v>2.253775163195665</v>
       </c>
       <c r="H3" t="n">
-        <v>21.76672328665289</v>
+        <v>21.76672328665287</v>
       </c>
       <c r="I3" t="n">
-        <v>77.59708346967537</v>
+        <v>77.5970834696753</v>
       </c>
       <c r="J3" t="n">
-        <v>212.9323280280608</v>
+        <v>212.9323280280606</v>
       </c>
       <c r="K3" t="n">
-        <v>363.9352639621704</v>
+        <v>363.9352639621701</v>
       </c>
       <c r="L3" t="n">
-        <v>489.3558747982521</v>
+        <v>489.3558747982517</v>
       </c>
       <c r="M3" t="n">
-        <v>571.0552244640949</v>
+        <v>571.0552244640944</v>
       </c>
       <c r="N3" t="n">
-        <v>586.1693570278063</v>
+        <v>586.1693570278057</v>
       </c>
       <c r="O3" t="n">
-        <v>536.2304442012075</v>
+        <v>536.2304442012071</v>
       </c>
       <c r="P3" t="n">
-        <v>430.3722063825129</v>
+        <v>430.3722063825125</v>
       </c>
       <c r="Q3" t="n">
-        <v>287.6924225861696</v>
+        <v>287.6924225861694</v>
       </c>
       <c r="R3" t="n">
-        <v>139.9317596938503</v>
+        <v>139.9317596938502</v>
       </c>
       <c r="S3" t="n">
-        <v>41.86288515848089</v>
+        <v>41.86288515848085</v>
       </c>
       <c r="T3" t="n">
-        <v>9.084295504284285</v>
+        <v>9.084295504284276</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1482746817891887</v>
+        <v>0.1482746817891885</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.889489387608676</v>
+        <v>1.889489387608674</v>
       </c>
       <c r="H4" t="n">
-        <v>16.79927837346624</v>
+        <v>16.79927837346623</v>
       </c>
       <c r="I4" t="n">
-        <v>56.82209903826821</v>
+        <v>56.82209903826816</v>
       </c>
       <c r="J4" t="n">
-        <v>133.5868997039334</v>
+        <v>133.5868997039333</v>
       </c>
       <c r="K4" t="n">
-        <v>219.5243124876261</v>
+        <v>219.524312487626</v>
       </c>
       <c r="L4" t="n">
-        <v>280.9155404086573</v>
+        <v>280.915540408657</v>
       </c>
       <c r="M4" t="n">
-        <v>296.1860500957854</v>
+        <v>296.1860500957852</v>
       </c>
       <c r="N4" t="n">
-        <v>289.1434078328806</v>
+        <v>289.1434078328804</v>
       </c>
       <c r="O4" t="n">
-        <v>267.070736350361</v>
+        <v>267.0707363503607</v>
       </c>
       <c r="P4" t="n">
-        <v>228.5251528431438</v>
+        <v>228.5251528431436</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.2189704478502</v>
+        <v>158.21897044785</v>
       </c>
       <c r="R4" t="n">
-        <v>84.95831373738645</v>
+        <v>84.95831373738638</v>
       </c>
       <c r="S4" t="n">
-        <v>32.92864687314392</v>
+        <v>32.92864687314389</v>
       </c>
       <c r="T4" t="n">
-        <v>8.073272837964341</v>
+        <v>8.073272837964334</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1030630575059279</v>
+        <v>0.1030630575059278</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>690.2058188111474</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>677.7372574190229</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32233,7 +32233,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
         <v>699.5441750817575</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>251.886104915025</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32710,7 +32710,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32786,10 +32786,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>196.3041720119</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,28 +33734,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>321.1112257697157</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34448,22 +34448,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>349.3304751113902</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>176.4671532934934</v>
+        <v>176.4671532934931</v>
       </c>
       <c r="K2" t="n">
-        <v>315.7295469278164</v>
+        <v>315.729546927816</v>
       </c>
       <c r="L2" t="n">
-        <v>428.9649286074794</v>
+        <v>428.9649286074787</v>
       </c>
       <c r="M2" t="n">
-        <v>509.2954665205011</v>
+        <v>509.2954665205004</v>
       </c>
       <c r="N2" t="n">
-        <v>522.1968121246916</v>
+        <v>522.196812124691</v>
       </c>
       <c r="O2" t="n">
-        <v>479.6256810751075</v>
+        <v>479.625681075107</v>
       </c>
       <c r="P2" t="n">
-        <v>374.4999264481692</v>
+        <v>374.4999264481687</v>
       </c>
       <c r="Q2" t="n">
-        <v>232.5745083338178</v>
+        <v>232.5745083338174</v>
       </c>
       <c r="R2" t="n">
-        <v>49.0148789024247</v>
+        <v>49.01487890242447</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86.0947013613941</v>
+        <v>86.0947013613939</v>
       </c>
       <c r="K3" t="n">
-        <v>226.0938249878114</v>
+        <v>226.0938249878111</v>
       </c>
       <c r="L3" t="n">
-        <v>350.8014950183779</v>
+        <v>350.8014950183775</v>
       </c>
       <c r="M3" t="n">
-        <v>428.9211905420765</v>
+        <v>428.9211905420761</v>
       </c>
       <c r="N3" t="n">
-        <v>589.8891785240683</v>
+        <v>454.8276449444725</v>
       </c>
       <c r="O3" t="n">
-        <v>393.6341997567631</v>
+        <v>393.6341997567627</v>
       </c>
       <c r="P3" t="n">
-        <v>296.3977989681827</v>
+        <v>296.3977989681823</v>
       </c>
       <c r="Q3" t="n">
-        <v>147.7106485001481</v>
+        <v>282.7721820797462</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>40.22771958726062</v>
+        <v>40.22771958726051</v>
       </c>
       <c r="K4" t="n">
-        <v>197.2548206617433</v>
+        <v>197.2548206617431</v>
       </c>
       <c r="L4" t="n">
-        <v>308.5055656689734</v>
+        <v>308.5055656689731</v>
       </c>
       <c r="M4" t="n">
-        <v>335.769927057626</v>
+        <v>335.7699270576258</v>
       </c>
       <c r="N4" t="n">
-        <v>333.2755802121092</v>
+        <v>333.2755802121089</v>
       </c>
       <c r="O4" t="n">
-        <v>291.6558642644006</v>
+        <v>291.6558642644004</v>
       </c>
       <c r="P4" t="n">
-        <v>225.8037121080373</v>
+        <v>225.8037121080371</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.05692719615577</v>
+        <v>72.05692719615563</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>547.609574366703</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>535.1410129745784</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>120.5443928316917</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36434,10 +36434,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36765,7 +36765,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>57.74979223202579</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38096,22 +38096,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>211.4890361370312</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
